--- a/服务之星-积分商城.xlsx
+++ b/服务之星-积分商城.xlsx
@@ -1,74 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowWidth="14050" windowHeight="8080"/>
   </bookViews>
   <sheets>
-    <sheet name="员工积分表" sheetId="1" r:id="rId3"/>
-    <sheet name="奖品列表" sheetId="2" r:id="rId4"/>
-    <sheet name="兑换收集" sheetId="3" r:id="rId5"/>
-    <sheet name="服务之星-积分兑换申请表（收集结果）" sheetId="4" r:id="rId6"/>
+    <sheet name="员工积分表" sheetId="1" r:id="rId1"/>
+    <sheet name="奖品列表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="false"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>提交者（自动）</t>
-  </si>
-  <si>
-    <t>提交时间（自动）</t>
-  </si>
-  <si>
-    <t>域账号（必填）</t>
-  </si>
-  <si>
-    <t>请填写你想要兑换的奖品（必填）</t>
-  </si>
-  <si>
-    <t>沐浴露</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+  <si>
+    <t>域账号</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>组别</t>
+  </si>
+  <si>
+    <t>累计积分</t>
+  </si>
+  <si>
+    <t>当前积分</t>
+  </si>
+  <si>
+    <t>组内排名</t>
+  </si>
+  <si>
+    <t>部门排名</t>
+  </si>
+  <si>
+    <t>积分记录</t>
+  </si>
+  <si>
+    <t>兑换记录</t>
   </si>
   <si>
     <t>ylzhou20</t>
   </si>
   <si>
-    <t>调休卡</t>
-  </si>
-  <si>
-    <t>域账号</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>组别</t>
-  </si>
-  <si>
-    <t>累计积分</t>
-  </si>
-  <si>
-    <t>当前积分</t>
-  </si>
-  <si>
-    <t>组内排名</t>
-  </si>
-  <si>
-    <t>部门排名</t>
-  </si>
-  <si>
-    <t>积分记录</t>
-  </si>
-  <si>
-    <t>兑换记录</t>
-  </si>
-  <si>
     <t>客户服务部</t>
   </si>
   <si>
@@ -103,73 +94,218 @@
   </si>
   <si>
     <t>定制马克杯</t>
-  </si>
-  <si>
-    <t>限 1 人 1 次，每月 5 日兑换；线下领取</t>
-  </si>
-  <si>
-    <t>充电宝</t>
-  </si>
-  <si>
-    <t>带薪休假 1 天</t>
-  </si>
-  <si>
-    <t>头像框</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>线上领取</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>https://picsum.photos/seed/prize1/300/200</t>
     </r>
+  </si>
+  <si>
+    <t>限 1 人 1 次，每月 5 日兑换；线下领取</t>
+  </si>
+  <si>
+    <t>充电宝</t>
+  </si>
+  <si>
+    <t>带薪休假 1 天</t>
+  </si>
+  <si>
+    <t>头像框</t>
+  </si>
+  <si>
+    <t>线上领取</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="300" formatCode="yyyy/m/d h:mm:ss;@"/>
-    <numFmt numFmtId="301" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color rgb="FF175CEB"/>
-      <sz val="10"/>
-      <u/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Microsoft YaHei"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +314,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC003"/>
-        <bgColor rgb="FFFFC003"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -204,53 +520,546 @@
       <bottom style="thin">
         <color rgb="FFDEE0E3"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs>
-    <xf fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="301" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -261,16 +1070,20 @@
     <xdr:ext cx="981075" cy="981075"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="1"/>
+        <xdr:cNvPr id="2" name="1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId0" r:link="rId0"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1120775" y="1017270"/>
+          <a:ext cx="981075" cy="981075"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -282,7 +1095,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -399,7 +1212,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -417,9 +1230,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -437,7 +1250,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -472,7 +1285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -489,7 +1302,7 @@
             <a:tint val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -507,261 +1320,212 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="员工积分表">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="I3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr codeName="员工积分表"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="14.7109" customWidth="true"/>
-    <col min="3" max="3" width="14.7109" customWidth="true"/>
-    <col min="4" max="4" width="11.1914" customWidth="true"/>
-    <col min="5" max="7" width="11.1914" customWidth="true"/>
-    <col min="8" max="8" width="25.2227" customWidth="true"/>
-    <col min="9" max="9" width="14.7109" customWidth="true"/>
+    <col min="1" max="3" width="14.7083333333333" customWidth="1"/>
+    <col min="4" max="7" width="11.1916666666667" customWidth="1"/>
+    <col min="8" max="8" width="25.225" customWidth="1"/>
+    <col min="9" max="9" width="14.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="true">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="3" customFormat="1" ht="14.5" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="D2" s="1">
+        <v>1314</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1120</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>666</v>
+      </c>
+      <c r="E3" s="1">
+        <v>555</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="true">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1314</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1120</v>
-      </c>
-      <c r="F2" s="8">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8">
-        <v>5</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="true">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8">
-        <v>666</v>
-      </c>
-      <c r="E3" s="8">
-        <v>555</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>12</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="奖品列表"/>
-  <dimension ref="E5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="14.7109" customWidth="true"/>
-    <col min="4" max="4" width="17.8008" customWidth="true"/>
+    <col min="1" max="3" width="14.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" ht="14.5" spans="1:5">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" ht="87" customHeight="1" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="true">
-      <c r="A2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="8">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="true">
-      <c r="A3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="8" t="s"/>
-      <c r="C3" s="8">
-        <v>50</v>
-      </c>
-      <c r="D3" s="8" t="s"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="true">
-      <c r="A4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="8" t="s"/>
-      <c r="C4" s="8">
-        <v>100</v>
-      </c>
-      <c r="D4" s="8" t="s"/>
-    </row>
-    <row r="5" spans="1:5" ht="87" customHeight="true">
-      <c r="A5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="8" t="s"/>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="E5" s="2">
         <v>46295</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId0"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://picsum.photos/seed/prize1/300/200"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="兑换收集">
-    <tabColor/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
-        <v>46049.6850810185</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>